--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test5.jpg</t>
+          <t>test4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1297.544296784271</v>
+        <v>42.55051859394197</v>
       </c>
       <c r="E2" t="n">
-        <v>1322313</v>
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test4.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>172.6457000398509</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23410</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test4.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.18964437182797</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test4.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1002.039455897757</v>
+      </c>
+      <c r="E5" t="n">
+        <v>788605</v>
       </c>
     </row>
   </sheetData>
